--- a/Trabalho 5 - OpenMP/Teste 1/task_with_transpose.xlsx
+++ b/Trabalho 5 - OpenMP/Teste 1/task_with_transpose.xlsx
@@ -166,8 +166,8 @@
   </sheetPr>
   <dimension ref="A1:N7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="O7" activeCellId="0" sqref="O7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="1:1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
